--- a/Generation_Efficiency.xlsx
+++ b/Generation_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>83.22070364674708</v>
+        <v>86.03005283130716</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>80.52740029734736</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Generation_Efficiency.xlsx
+++ b/Generation_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>83.22070364674708</v>
+        <v>86.03005283130716</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>74.90258945071582</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Generation_Efficiency.xlsx
+++ b/Generation_Efficiency.xlsx
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>74.90258945071582</v>
+        <v>82.78786912216496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
